--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18135" windowHeight="11505"/>
+    <workbookView windowWidth="18135" windowHeight="11505" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,13 @@
     <sheet name="进程架构" sheetId="3" r:id="rId3"/>
     <sheet name="Worker" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>核心模块</t>
   </si>
@@ -149,6 +149,9 @@
     <t>Worker</t>
   </si>
   <si>
+    <t>每个worker都只有一个主线程在工作,不派生子线程.对于连接的处理采用异步IO的方式进行.epoll</t>
+  </si>
+  <si>
     <t>Accept &amp; HTTP</t>
   </si>
   <si>
@@ -161,7 +164,13 @@
     <t>I/O Controller</t>
   </si>
   <si>
+    <t>异步 epoll</t>
+  </si>
+  <si>
     <t>Memcached Controller</t>
+  </si>
+  <si>
+    <t>Memcached Process</t>
   </si>
   <si>
     <t>FastCGI</t>
@@ -173,11 +182,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -190,11 +199,6 @@
       <color indexed="51"/>
       <name val="宋体"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -412,23 +416,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -462,21 +466,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -484,18 +473,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -671,9 +648,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1071,11 +1045,11 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -1101,1190 +1075,1190 @@
   <sheetPr/>
   <dimension ref="C3:AG42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="V4" sqref="V4:AG19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="3" spans="6:10">
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
     </row>
     <row r="4" spans="3:33">
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="57" t="s">
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="70"/>
-      <c r="S4" s="71" t="s">
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="61"/>
+      <c r="S4" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="57" t="s">
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="W4" s="58"/>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="58"/>
-      <c r="Z4" s="58"/>
-      <c r="AA4" s="58"/>
-      <c r="AB4" s="58"/>
-      <c r="AC4" s="58"/>
-      <c r="AD4" s="58"/>
-      <c r="AE4" s="58"/>
-      <c r="AF4" s="58"/>
-      <c r="AG4" s="70"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="49"/>
+      <c r="AC4" s="49"/>
+      <c r="AD4" s="49"/>
+      <c r="AE4" s="49"/>
+      <c r="AF4" s="49"/>
+      <c r="AG4" s="61"/>
     </row>
     <row r="5" spans="3:33">
-      <c r="C5" s="59"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="70"/>
-      <c r="S5" s="73"/>
-      <c r="T5" s="74"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="58"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="58"/>
-      <c r="Y5" s="58"/>
-      <c r="Z5" s="58"/>
-      <c r="AA5" s="58"/>
-      <c r="AB5" s="58"/>
-      <c r="AC5" s="58"/>
-      <c r="AD5" s="58"/>
-      <c r="AE5" s="58"/>
-      <c r="AF5" s="58"/>
-      <c r="AG5" s="70"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="61"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="49"/>
+      <c r="AD5" s="49"/>
+      <c r="AE5" s="49"/>
+      <c r="AF5" s="49"/>
+      <c r="AG5" s="61"/>
     </row>
     <row r="6" spans="3:33">
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="70"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="74"/>
-      <c r="U6" s="74"/>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="58"/>
-      <c r="Y6" s="58"/>
-      <c r="Z6" s="58"/>
-      <c r="AA6" s="58"/>
-      <c r="AB6" s="58"/>
-      <c r="AC6" s="58"/>
-      <c r="AD6" s="58"/>
-      <c r="AE6" s="58"/>
-      <c r="AF6" s="58"/>
-      <c r="AG6" s="70"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="61"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="49"/>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="49"/>
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="49"/>
+      <c r="AG6" s="61"/>
     </row>
     <row r="7" spans="3:33">
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="70"/>
-      <c r="S7" s="73"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="74"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="58"/>
-      <c r="AA7" s="58"/>
-      <c r="AB7" s="58"/>
-      <c r="AC7" s="58"/>
-      <c r="AD7" s="58"/>
-      <c r="AE7" s="58"/>
-      <c r="AF7" s="58"/>
-      <c r="AG7" s="70"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="61"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="65"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="49"/>
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="49"/>
+      <c r="AF7" s="49"/>
+      <c r="AG7" s="61"/>
     </row>
     <row r="8" spans="3:33">
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="70"/>
-      <c r="S8" s="73"/>
-      <c r="T8" s="74"/>
-      <c r="U8" s="74"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="58"/>
-      <c r="AB8" s="58"/>
-      <c r="AC8" s="58"/>
-      <c r="AD8" s="58"/>
-      <c r="AE8" s="58"/>
-      <c r="AF8" s="58"/>
-      <c r="AG8" s="70"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="61"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="65"/>
+      <c r="U8" s="65"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="49"/>
+      <c r="AD8" s="49"/>
+      <c r="AE8" s="49"/>
+      <c r="AF8" s="49"/>
+      <c r="AG8" s="61"/>
     </row>
     <row r="9" spans="3:33">
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="70"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="74"/>
-      <c r="U9" s="74"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="58"/>
-      <c r="AC9" s="58"/>
-      <c r="AD9" s="58"/>
-      <c r="AE9" s="58"/>
-      <c r="AF9" s="58"/>
-      <c r="AG9" s="70"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="61"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="49"/>
+      <c r="AG9" s="61"/>
     </row>
     <row r="10" spans="3:33">
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="70"/>
-      <c r="S10" s="73"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="58"/>
-      <c r="AC10" s="58"/>
-      <c r="AD10" s="58"/>
-      <c r="AE10" s="58"/>
-      <c r="AF10" s="58"/>
-      <c r="AG10" s="70"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="61"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="65"/>
+      <c r="U10" s="65"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="49"/>
+      <c r="AC10" s="49"/>
+      <c r="AD10" s="49"/>
+      <c r="AE10" s="49"/>
+      <c r="AF10" s="49"/>
+      <c r="AG10" s="61"/>
     </row>
     <row r="11" spans="3:33">
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="70"/>
-      <c r="S11" s="73"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="74"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="58"/>
-      <c r="AA11" s="58"/>
-      <c r="AB11" s="58"/>
-      <c r="AC11" s="58"/>
-      <c r="AD11" s="58"/>
-      <c r="AE11" s="58"/>
-      <c r="AF11" s="58"/>
-      <c r="AG11" s="70"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="61"/>
+      <c r="S11" s="64"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="49"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="49"/>
+      <c r="AE11" s="49"/>
+      <c r="AF11" s="49"/>
+      <c r="AG11" s="61"/>
     </row>
     <row r="12" spans="3:33">
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="70"/>
-      <c r="S12" s="73"/>
-      <c r="T12" s="74"/>
-      <c r="U12" s="74"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="58"/>
-      <c r="AC12" s="58"/>
-      <c r="AD12" s="58"/>
-      <c r="AE12" s="58"/>
-      <c r="AF12" s="58"/>
-      <c r="AG12" s="70"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="61"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="49"/>
+      <c r="AD12" s="49"/>
+      <c r="AE12" s="49"/>
+      <c r="AF12" s="49"/>
+      <c r="AG12" s="61"/>
     </row>
     <row r="13" spans="3:33">
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="70"/>
-      <c r="S13" s="73"/>
-      <c r="T13" s="74"/>
-      <c r="U13" s="74"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="58"/>
-      <c r="AA13" s="58"/>
-      <c r="AB13" s="58"/>
-      <c r="AC13" s="58"/>
-      <c r="AD13" s="58"/>
-      <c r="AE13" s="58"/>
-      <c r="AF13" s="58"/>
-      <c r="AG13" s="70"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="61"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="49"/>
+      <c r="AC13" s="49"/>
+      <c r="AD13" s="49"/>
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="49"/>
+      <c r="AG13" s="61"/>
     </row>
     <row r="14" spans="3:33">
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="70"/>
-      <c r="S14" s="73"/>
-      <c r="T14" s="74"/>
-      <c r="U14" s="74"/>
-      <c r="V14" s="58"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="58"/>
-      <c r="AA14" s="58"/>
-      <c r="AB14" s="58"/>
-      <c r="AC14" s="58"/>
-      <c r="AD14" s="58"/>
-      <c r="AE14" s="58"/>
-      <c r="AF14" s="58"/>
-      <c r="AG14" s="70"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="61"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="65"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="49"/>
+      <c r="AB14" s="49"/>
+      <c r="AC14" s="49"/>
+      <c r="AD14" s="49"/>
+      <c r="AE14" s="49"/>
+      <c r="AF14" s="49"/>
+      <c r="AG14" s="61"/>
     </row>
     <row r="15" spans="3:33">
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="70"/>
-      <c r="S15" s="73"/>
-      <c r="T15" s="74"/>
-      <c r="U15" s="74"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="58"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="58"/>
-      <c r="AB15" s="58"/>
-      <c r="AC15" s="58"/>
-      <c r="AD15" s="58"/>
-      <c r="AE15" s="58"/>
-      <c r="AF15" s="58"/>
-      <c r="AG15" s="70"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="61"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="65"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15" s="49"/>
+      <c r="AA15" s="49"/>
+      <c r="AB15" s="49"/>
+      <c r="AC15" s="49"/>
+      <c r="AD15" s="49"/>
+      <c r="AE15" s="49"/>
+      <c r="AF15" s="49"/>
+      <c r="AG15" s="61"/>
     </row>
     <row r="16" spans="3:33">
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="58"/>
-      <c r="Q16" s="70"/>
-      <c r="S16" s="73"/>
-      <c r="T16" s="74"/>
-      <c r="U16" s="74"/>
-      <c r="V16" s="58"/>
-      <c r="W16" s="58"/>
-      <c r="X16" s="58"/>
-      <c r="Y16" s="58"/>
-      <c r="Z16" s="58"/>
-      <c r="AA16" s="58"/>
-      <c r="AB16" s="58"/>
-      <c r="AC16" s="58"/>
-      <c r="AD16" s="58"/>
-      <c r="AE16" s="58"/>
-      <c r="AF16" s="58"/>
-      <c r="AG16" s="70"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="61"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="65"/>
+      <c r="U16" s="65"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="49"/>
+      <c r="X16" s="49"/>
+      <c r="Y16" s="49"/>
+      <c r="Z16" s="49"/>
+      <c r="AA16" s="49"/>
+      <c r="AB16" s="49"/>
+      <c r="AC16" s="49"/>
+      <c r="AD16" s="49"/>
+      <c r="AE16" s="49"/>
+      <c r="AF16" s="49"/>
+      <c r="AG16" s="61"/>
     </row>
     <row r="17" spans="3:33">
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="58"/>
-      <c r="Q17" s="70"/>
-      <c r="S17" s="73"/>
-      <c r="T17" s="74"/>
-      <c r="U17" s="74"/>
-      <c r="V17" s="58"/>
-      <c r="W17" s="58"/>
-      <c r="X17" s="58"/>
-      <c r="Y17" s="58"/>
-      <c r="Z17" s="58"/>
-      <c r="AA17" s="58"/>
-      <c r="AB17" s="58"/>
-      <c r="AC17" s="58"/>
-      <c r="AD17" s="58"/>
-      <c r="AE17" s="58"/>
-      <c r="AF17" s="58"/>
-      <c r="AG17" s="70"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="61"/>
+      <c r="S17" s="64"/>
+      <c r="T17" s="65"/>
+      <c r="U17" s="65"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="49"/>
+      <c r="AA17" s="49"/>
+      <c r="AB17" s="49"/>
+      <c r="AC17" s="49"/>
+      <c r="AD17" s="49"/>
+      <c r="AE17" s="49"/>
+      <c r="AF17" s="49"/>
+      <c r="AG17" s="61"/>
     </row>
     <row r="18" spans="3:33">
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="70"/>
-      <c r="S18" s="73"/>
-      <c r="T18" s="74"/>
-      <c r="U18" s="74"/>
-      <c r="V18" s="58"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="58"/>
-      <c r="Y18" s="58"/>
-      <c r="Z18" s="58"/>
-      <c r="AA18" s="58"/>
-      <c r="AB18" s="58"/>
-      <c r="AC18" s="58"/>
-      <c r="AD18" s="58"/>
-      <c r="AE18" s="58"/>
-      <c r="AF18" s="58"/>
-      <c r="AG18" s="70"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="61"/>
+      <c r="S18" s="64"/>
+      <c r="T18" s="65"/>
+      <c r="U18" s="65"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="49"/>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="49"/>
+      <c r="AA18" s="49"/>
+      <c r="AB18" s="49"/>
+      <c r="AC18" s="49"/>
+      <c r="AD18" s="49"/>
+      <c r="AE18" s="49"/>
+      <c r="AF18" s="49"/>
+      <c r="AG18" s="61"/>
     </row>
     <row r="19" spans="3:33">
-      <c r="C19" s="61"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="75"/>
-      <c r="S19" s="76"/>
-      <c r="T19" s="77"/>
-      <c r="U19" s="77"/>
-      <c r="V19" s="63"/>
-      <c r="W19" s="63"/>
-      <c r="X19" s="63"/>
-      <c r="Y19" s="63"/>
-      <c r="Z19" s="63"/>
-      <c r="AA19" s="63"/>
-      <c r="AB19" s="63"/>
-      <c r="AC19" s="63"/>
-      <c r="AD19" s="63"/>
-      <c r="AE19" s="63"/>
-      <c r="AF19" s="63"/>
-      <c r="AG19" s="75"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="66"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="68"/>
+      <c r="U19" s="68"/>
+      <c r="V19" s="54"/>
+      <c r="W19" s="54"/>
+      <c r="X19" s="54"/>
+      <c r="Y19" s="54"/>
+      <c r="Z19" s="54"/>
+      <c r="AA19" s="54"/>
+      <c r="AB19" s="54"/>
+      <c r="AC19" s="54"/>
+      <c r="AD19" s="54"/>
+      <c r="AE19" s="54"/>
+      <c r="AF19" s="54"/>
+      <c r="AG19" s="66"/>
     </row>
     <row r="23" customHeight="1" spans="3:33">
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="57" t="s">
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="70"/>
-      <c r="S23" s="78" t="s">
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="61"/>
+      <c r="S23" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="T23" s="79"/>
-      <c r="U23" s="80"/>
-      <c r="V23" s="81" t="s">
+      <c r="T23" s="70"/>
+      <c r="U23" s="71"/>
+      <c r="V23" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="W23" s="82"/>
-      <c r="X23" s="82"/>
-      <c r="Y23" s="82"/>
-      <c r="Z23" s="82"/>
-      <c r="AA23" s="82"/>
-      <c r="AB23" s="82"/>
-      <c r="AC23" s="82"/>
-      <c r="AD23" s="82"/>
-      <c r="AE23" s="82"/>
-      <c r="AF23" s="82"/>
-      <c r="AG23" s="102"/>
+      <c r="W23" s="72"/>
+      <c r="X23" s="72"/>
+      <c r="Y23" s="72"/>
+      <c r="Z23" s="72"/>
+      <c r="AA23" s="72"/>
+      <c r="AB23" s="72"/>
+      <c r="AC23" s="72"/>
+      <c r="AD23" s="72"/>
+      <c r="AE23" s="72"/>
+      <c r="AF23" s="72"/>
+      <c r="AG23" s="92"/>
     </row>
     <row r="24" spans="3:33">
-      <c r="C24" s="66"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="58"/>
-      <c r="Q24" s="70"/>
-      <c r="S24" s="83"/>
-      <c r="T24" s="84"/>
-      <c r="U24" s="85"/>
-      <c r="V24" s="86"/>
-      <c r="W24" s="87"/>
-      <c r="X24" s="87"/>
-      <c r="Y24" s="87"/>
-      <c r="Z24" s="87"/>
-      <c r="AA24" s="87"/>
-      <c r="AB24" s="87"/>
-      <c r="AC24" s="87"/>
-      <c r="AD24" s="87"/>
-      <c r="AE24" s="87"/>
-      <c r="AF24" s="87"/>
-      <c r="AG24" s="103"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="61"/>
+      <c r="S24" s="73"/>
+      <c r="T24" s="74"/>
+      <c r="U24" s="75"/>
+      <c r="V24" s="76"/>
+      <c r="W24" s="77"/>
+      <c r="X24" s="77"/>
+      <c r="Y24" s="77"/>
+      <c r="Z24" s="77"/>
+      <c r="AA24" s="77"/>
+      <c r="AB24" s="77"/>
+      <c r="AC24" s="77"/>
+      <c r="AD24" s="77"/>
+      <c r="AE24" s="77"/>
+      <c r="AF24" s="77"/>
+      <c r="AG24" s="93"/>
     </row>
     <row r="25" spans="3:33">
-      <c r="C25" s="66"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="70"/>
-      <c r="S25" s="83"/>
-      <c r="T25" s="84"/>
-      <c r="U25" s="85"/>
-      <c r="V25" s="86"/>
-      <c r="W25" s="87"/>
-      <c r="X25" s="87"/>
-      <c r="Y25" s="87"/>
-      <c r="Z25" s="87"/>
-      <c r="AA25" s="87"/>
-      <c r="AB25" s="87"/>
-      <c r="AC25" s="87"/>
-      <c r="AD25" s="87"/>
-      <c r="AE25" s="87"/>
-      <c r="AF25" s="87"/>
-      <c r="AG25" s="103"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="61"/>
+      <c r="S25" s="73"/>
+      <c r="T25" s="74"/>
+      <c r="U25" s="75"/>
+      <c r="V25" s="76"/>
+      <c r="W25" s="77"/>
+      <c r="X25" s="77"/>
+      <c r="Y25" s="77"/>
+      <c r="Z25" s="77"/>
+      <c r="AA25" s="77"/>
+      <c r="AB25" s="77"/>
+      <c r="AC25" s="77"/>
+      <c r="AD25" s="77"/>
+      <c r="AE25" s="77"/>
+      <c r="AF25" s="77"/>
+      <c r="AG25" s="93"/>
     </row>
     <row r="26" spans="3:33">
-      <c r="C26" s="66"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="58"/>
-      <c r="Q26" s="70"/>
-      <c r="S26" s="83"/>
-      <c r="T26" s="84"/>
-      <c r="U26" s="85"/>
-      <c r="V26" s="86"/>
-      <c r="W26" s="87"/>
-      <c r="X26" s="87"/>
-      <c r="Y26" s="87"/>
-      <c r="Z26" s="87"/>
-      <c r="AA26" s="87"/>
-      <c r="AB26" s="87"/>
-      <c r="AC26" s="87"/>
-      <c r="AD26" s="87"/>
-      <c r="AE26" s="87"/>
-      <c r="AF26" s="87"/>
-      <c r="AG26" s="103"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="61"/>
+      <c r="S26" s="73"/>
+      <c r="T26" s="74"/>
+      <c r="U26" s="75"/>
+      <c r="V26" s="76"/>
+      <c r="W26" s="77"/>
+      <c r="X26" s="77"/>
+      <c r="Y26" s="77"/>
+      <c r="Z26" s="77"/>
+      <c r="AA26" s="77"/>
+      <c r="AB26" s="77"/>
+      <c r="AC26" s="77"/>
+      <c r="AD26" s="77"/>
+      <c r="AE26" s="77"/>
+      <c r="AF26" s="77"/>
+      <c r="AG26" s="93"/>
     </row>
     <row r="27" spans="3:33">
-      <c r="C27" s="66"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="70"/>
-      <c r="S27" s="83"/>
-      <c r="T27" s="84"/>
-      <c r="U27" s="85"/>
-      <c r="V27" s="86"/>
-      <c r="W27" s="87"/>
-      <c r="X27" s="87"/>
-      <c r="Y27" s="87"/>
-      <c r="Z27" s="87"/>
-      <c r="AA27" s="87"/>
-      <c r="AB27" s="87"/>
-      <c r="AC27" s="87"/>
-      <c r="AD27" s="87"/>
-      <c r="AE27" s="87"/>
-      <c r="AF27" s="87"/>
-      <c r="AG27" s="103"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="61"/>
+      <c r="S27" s="73"/>
+      <c r="T27" s="74"/>
+      <c r="U27" s="75"/>
+      <c r="V27" s="76"/>
+      <c r="W27" s="77"/>
+      <c r="X27" s="77"/>
+      <c r="Y27" s="77"/>
+      <c r="Z27" s="77"/>
+      <c r="AA27" s="77"/>
+      <c r="AB27" s="77"/>
+      <c r="AC27" s="77"/>
+      <c r="AD27" s="77"/>
+      <c r="AE27" s="77"/>
+      <c r="AF27" s="77"/>
+      <c r="AG27" s="93"/>
     </row>
     <row r="28" spans="3:33">
-      <c r="C28" s="66"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="58"/>
-      <c r="Q28" s="70"/>
-      <c r="S28" s="83"/>
-      <c r="T28" s="84"/>
-      <c r="U28" s="85"/>
-      <c r="V28" s="86"/>
-      <c r="W28" s="87"/>
-      <c r="X28" s="87"/>
-      <c r="Y28" s="87"/>
-      <c r="Z28" s="87"/>
-      <c r="AA28" s="87"/>
-      <c r="AB28" s="87"/>
-      <c r="AC28" s="87"/>
-      <c r="AD28" s="87"/>
-      <c r="AE28" s="87"/>
-      <c r="AF28" s="87"/>
-      <c r="AG28" s="103"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="61"/>
+      <c r="S28" s="73"/>
+      <c r="T28" s="74"/>
+      <c r="U28" s="75"/>
+      <c r="V28" s="76"/>
+      <c r="W28" s="77"/>
+      <c r="X28" s="77"/>
+      <c r="Y28" s="77"/>
+      <c r="Z28" s="77"/>
+      <c r="AA28" s="77"/>
+      <c r="AB28" s="77"/>
+      <c r="AC28" s="77"/>
+      <c r="AD28" s="77"/>
+      <c r="AE28" s="77"/>
+      <c r="AF28" s="77"/>
+      <c r="AG28" s="93"/>
     </row>
     <row r="29" spans="3:33">
-      <c r="C29" s="66"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="70"/>
-      <c r="S29" s="83"/>
-      <c r="T29" s="84"/>
-      <c r="U29" s="85"/>
-      <c r="V29" s="86"/>
-      <c r="W29" s="87"/>
-      <c r="X29" s="87"/>
-      <c r="Y29" s="87"/>
-      <c r="Z29" s="87"/>
-      <c r="AA29" s="87"/>
-      <c r="AB29" s="87"/>
-      <c r="AC29" s="87"/>
-      <c r="AD29" s="87"/>
-      <c r="AE29" s="87"/>
-      <c r="AF29" s="87"/>
-      <c r="AG29" s="103"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="61"/>
+      <c r="S29" s="73"/>
+      <c r="T29" s="74"/>
+      <c r="U29" s="75"/>
+      <c r="V29" s="76"/>
+      <c r="W29" s="77"/>
+      <c r="X29" s="77"/>
+      <c r="Y29" s="77"/>
+      <c r="Z29" s="77"/>
+      <c r="AA29" s="77"/>
+      <c r="AB29" s="77"/>
+      <c r="AC29" s="77"/>
+      <c r="AD29" s="77"/>
+      <c r="AE29" s="77"/>
+      <c r="AF29" s="77"/>
+      <c r="AG29" s="93"/>
     </row>
     <row r="30" spans="3:33">
-      <c r="C30" s="66"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="70"/>
-      <c r="S30" s="83"/>
-      <c r="T30" s="84"/>
-      <c r="U30" s="85"/>
-      <c r="V30" s="86"/>
-      <c r="W30" s="87"/>
-      <c r="X30" s="87"/>
-      <c r="Y30" s="87"/>
-      <c r="Z30" s="87"/>
-      <c r="AA30" s="87"/>
-      <c r="AB30" s="87"/>
-      <c r="AC30" s="87"/>
-      <c r="AD30" s="87"/>
-      <c r="AE30" s="87"/>
-      <c r="AF30" s="87"/>
-      <c r="AG30" s="103"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="61"/>
+      <c r="S30" s="73"/>
+      <c r="T30" s="74"/>
+      <c r="U30" s="75"/>
+      <c r="V30" s="76"/>
+      <c r="W30" s="77"/>
+      <c r="X30" s="77"/>
+      <c r="Y30" s="77"/>
+      <c r="Z30" s="77"/>
+      <c r="AA30" s="77"/>
+      <c r="AB30" s="77"/>
+      <c r="AC30" s="77"/>
+      <c r="AD30" s="77"/>
+      <c r="AE30" s="77"/>
+      <c r="AF30" s="77"/>
+      <c r="AG30" s="93"/>
     </row>
     <row r="31" spans="3:33">
-      <c r="C31" s="66"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="70"/>
-      <c r="S31" s="83"/>
-      <c r="T31" s="84"/>
-      <c r="U31" s="85"/>
-      <c r="V31" s="86"/>
-      <c r="W31" s="87"/>
-      <c r="X31" s="87"/>
-      <c r="Y31" s="87"/>
-      <c r="Z31" s="87"/>
-      <c r="AA31" s="87"/>
-      <c r="AB31" s="87"/>
-      <c r="AC31" s="87"/>
-      <c r="AD31" s="87"/>
-      <c r="AE31" s="87"/>
-      <c r="AF31" s="87"/>
-      <c r="AG31" s="103"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="61"/>
+      <c r="S31" s="73"/>
+      <c r="T31" s="74"/>
+      <c r="U31" s="75"/>
+      <c r="V31" s="76"/>
+      <c r="W31" s="77"/>
+      <c r="X31" s="77"/>
+      <c r="Y31" s="77"/>
+      <c r="Z31" s="77"/>
+      <c r="AA31" s="77"/>
+      <c r="AB31" s="77"/>
+      <c r="AC31" s="77"/>
+      <c r="AD31" s="77"/>
+      <c r="AE31" s="77"/>
+      <c r="AF31" s="77"/>
+      <c r="AG31" s="93"/>
     </row>
     <row r="32" spans="3:33">
-      <c r="C32" s="66"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="70"/>
-      <c r="S32" s="83"/>
-      <c r="T32" s="84"/>
-      <c r="U32" s="85"/>
-      <c r="V32" s="86"/>
-      <c r="W32" s="87"/>
-      <c r="X32" s="87"/>
-      <c r="Y32" s="87"/>
-      <c r="Z32" s="87"/>
-      <c r="AA32" s="87"/>
-      <c r="AB32" s="87"/>
-      <c r="AC32" s="87"/>
-      <c r="AD32" s="87"/>
-      <c r="AE32" s="87"/>
-      <c r="AF32" s="87"/>
-      <c r="AG32" s="103"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="61"/>
+      <c r="S32" s="73"/>
+      <c r="T32" s="74"/>
+      <c r="U32" s="75"/>
+      <c r="V32" s="76"/>
+      <c r="W32" s="77"/>
+      <c r="X32" s="77"/>
+      <c r="Y32" s="77"/>
+      <c r="Z32" s="77"/>
+      <c r="AA32" s="77"/>
+      <c r="AB32" s="77"/>
+      <c r="AC32" s="77"/>
+      <c r="AD32" s="77"/>
+      <c r="AE32" s="77"/>
+      <c r="AF32" s="77"/>
+      <c r="AG32" s="93"/>
     </row>
     <row r="33" spans="3:33">
-      <c r="C33" s="66"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="58"/>
-      <c r="O33" s="58"/>
-      <c r="P33" s="58"/>
-      <c r="Q33" s="70"/>
-      <c r="S33" s="83"/>
-      <c r="T33" s="84"/>
-      <c r="U33" s="85"/>
-      <c r="V33" s="86"/>
-      <c r="W33" s="87"/>
-      <c r="X33" s="87"/>
-      <c r="Y33" s="87"/>
-      <c r="Z33" s="87"/>
-      <c r="AA33" s="87"/>
-      <c r="AB33" s="87"/>
-      <c r="AC33" s="87"/>
-      <c r="AD33" s="87"/>
-      <c r="AE33" s="87"/>
-      <c r="AF33" s="87"/>
-      <c r="AG33" s="103"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="61"/>
+      <c r="S33" s="73"/>
+      <c r="T33" s="74"/>
+      <c r="U33" s="75"/>
+      <c r="V33" s="76"/>
+      <c r="W33" s="77"/>
+      <c r="X33" s="77"/>
+      <c r="Y33" s="77"/>
+      <c r="Z33" s="77"/>
+      <c r="AA33" s="77"/>
+      <c r="AB33" s="77"/>
+      <c r="AC33" s="77"/>
+      <c r="AD33" s="77"/>
+      <c r="AE33" s="77"/>
+      <c r="AF33" s="77"/>
+      <c r="AG33" s="93"/>
     </row>
     <row r="34" spans="3:33">
-      <c r="C34" s="66"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="58"/>
-      <c r="Q34" s="70"/>
-      <c r="S34" s="88" t="s">
+      <c r="C34" s="57"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="61"/>
+      <c r="S34" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="T34" s="89"/>
-      <c r="U34" s="90"/>
-      <c r="V34" s="81" t="s">
+      <c r="T34" s="79"/>
+      <c r="U34" s="80"/>
+      <c r="V34" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="W34" s="91"/>
-      <c r="X34" s="91"/>
-      <c r="Y34" s="91"/>
-      <c r="Z34" s="91"/>
-      <c r="AA34" s="91"/>
-      <c r="AB34" s="91"/>
-      <c r="AC34" s="91"/>
-      <c r="AD34" s="91"/>
-      <c r="AE34" s="91"/>
-      <c r="AF34" s="91"/>
-      <c r="AG34" s="104"/>
+      <c r="W34" s="81"/>
+      <c r="X34" s="81"/>
+      <c r="Y34" s="81"/>
+      <c r="Z34" s="81"/>
+      <c r="AA34" s="81"/>
+      <c r="AB34" s="81"/>
+      <c r="AC34" s="81"/>
+      <c r="AD34" s="81"/>
+      <c r="AE34" s="81"/>
+      <c r="AF34" s="81"/>
+      <c r="AG34" s="94"/>
     </row>
     <row r="35" spans="3:33">
-      <c r="C35" s="66"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="58"/>
-      <c r="M35" s="58"/>
-      <c r="N35" s="58"/>
-      <c r="O35" s="58"/>
-      <c r="P35" s="58"/>
-      <c r="Q35" s="70"/>
-      <c r="S35" s="92"/>
-      <c r="T35" s="93"/>
-      <c r="U35" s="94"/>
-      <c r="V35" s="95"/>
-      <c r="W35" s="96"/>
-      <c r="X35" s="96"/>
-      <c r="Y35" s="96"/>
-      <c r="Z35" s="96"/>
-      <c r="AA35" s="96"/>
-      <c r="AB35" s="96"/>
-      <c r="AC35" s="96"/>
-      <c r="AD35" s="96"/>
-      <c r="AE35" s="96"/>
-      <c r="AF35" s="96"/>
-      <c r="AG35" s="105"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="61"/>
+      <c r="S35" s="82"/>
+      <c r="T35" s="83"/>
+      <c r="U35" s="84"/>
+      <c r="V35" s="85"/>
+      <c r="W35" s="86"/>
+      <c r="X35" s="86"/>
+      <c r="Y35" s="86"/>
+      <c r="Z35" s="86"/>
+      <c r="AA35" s="86"/>
+      <c r="AB35" s="86"/>
+      <c r="AC35" s="86"/>
+      <c r="AD35" s="86"/>
+      <c r="AE35" s="86"/>
+      <c r="AF35" s="86"/>
+      <c r="AG35" s="95"/>
     </row>
     <row r="36" spans="3:33">
-      <c r="C36" s="66"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="58"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="58"/>
-      <c r="N36" s="58"/>
-      <c r="O36" s="58"/>
-      <c r="P36" s="58"/>
-      <c r="Q36" s="70"/>
-      <c r="S36" s="92"/>
-      <c r="T36" s="93"/>
-      <c r="U36" s="94"/>
-      <c r="V36" s="95"/>
-      <c r="W36" s="96"/>
-      <c r="X36" s="96"/>
-      <c r="Y36" s="96"/>
-      <c r="Z36" s="96"/>
-      <c r="AA36" s="96"/>
-      <c r="AB36" s="96"/>
-      <c r="AC36" s="96"/>
-      <c r="AD36" s="96"/>
-      <c r="AE36" s="96"/>
-      <c r="AF36" s="96"/>
-      <c r="AG36" s="105"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="61"/>
+      <c r="S36" s="82"/>
+      <c r="T36" s="83"/>
+      <c r="U36" s="84"/>
+      <c r="V36" s="85"/>
+      <c r="W36" s="86"/>
+      <c r="X36" s="86"/>
+      <c r="Y36" s="86"/>
+      <c r="Z36" s="86"/>
+      <c r="AA36" s="86"/>
+      <c r="AB36" s="86"/>
+      <c r="AC36" s="86"/>
+      <c r="AD36" s="86"/>
+      <c r="AE36" s="86"/>
+      <c r="AF36" s="86"/>
+      <c r="AG36" s="95"/>
     </row>
     <row r="37" spans="3:33">
-      <c r="C37" s="66"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="58"/>
-      <c r="L37" s="58"/>
-      <c r="M37" s="58"/>
-      <c r="N37" s="58"/>
-      <c r="O37" s="58"/>
-      <c r="P37" s="58"/>
-      <c r="Q37" s="70"/>
-      <c r="S37" s="92"/>
-      <c r="T37" s="93"/>
-      <c r="U37" s="94"/>
-      <c r="V37" s="95"/>
-      <c r="W37" s="96"/>
-      <c r="X37" s="96"/>
-      <c r="Y37" s="96"/>
-      <c r="Z37" s="96"/>
-      <c r="AA37" s="96"/>
-      <c r="AB37" s="96"/>
-      <c r="AC37" s="96"/>
-      <c r="AD37" s="96"/>
-      <c r="AE37" s="96"/>
-      <c r="AF37" s="96"/>
-      <c r="AG37" s="105"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="61"/>
+      <c r="S37" s="82"/>
+      <c r="T37" s="83"/>
+      <c r="U37" s="84"/>
+      <c r="V37" s="85"/>
+      <c r="W37" s="86"/>
+      <c r="X37" s="86"/>
+      <c r="Y37" s="86"/>
+      <c r="Z37" s="86"/>
+      <c r="AA37" s="86"/>
+      <c r="AB37" s="86"/>
+      <c r="AC37" s="86"/>
+      <c r="AD37" s="86"/>
+      <c r="AE37" s="86"/>
+      <c r="AF37" s="86"/>
+      <c r="AG37" s="95"/>
     </row>
     <row r="38" spans="3:33">
-      <c r="C38" s="66"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="58"/>
-      <c r="L38" s="58"/>
-      <c r="M38" s="58"/>
-      <c r="N38" s="58"/>
-      <c r="O38" s="58"/>
-      <c r="P38" s="58"/>
-      <c r="Q38" s="70"/>
-      <c r="S38" s="92"/>
-      <c r="T38" s="93"/>
-      <c r="U38" s="94"/>
-      <c r="V38" s="95"/>
-      <c r="W38" s="96"/>
-      <c r="X38" s="96"/>
-      <c r="Y38" s="96"/>
-      <c r="Z38" s="96"/>
-      <c r="AA38" s="96"/>
-      <c r="AB38" s="96"/>
-      <c r="AC38" s="96"/>
-      <c r="AD38" s="96"/>
-      <c r="AE38" s="96"/>
-      <c r="AF38" s="96"/>
-      <c r="AG38" s="105"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="61"/>
+      <c r="S38" s="82"/>
+      <c r="T38" s="83"/>
+      <c r="U38" s="84"/>
+      <c r="V38" s="85"/>
+      <c r="W38" s="86"/>
+      <c r="X38" s="86"/>
+      <c r="Y38" s="86"/>
+      <c r="Z38" s="86"/>
+      <c r="AA38" s="86"/>
+      <c r="AB38" s="86"/>
+      <c r="AC38" s="86"/>
+      <c r="AD38" s="86"/>
+      <c r="AE38" s="86"/>
+      <c r="AF38" s="86"/>
+      <c r="AG38" s="95"/>
     </row>
     <row r="39" spans="3:33">
-      <c r="C39" s="66"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="58"/>
-      <c r="L39" s="58"/>
-      <c r="M39" s="58"/>
-      <c r="N39" s="58"/>
-      <c r="O39" s="58"/>
-      <c r="P39" s="58"/>
-      <c r="Q39" s="70"/>
-      <c r="S39" s="92"/>
-      <c r="T39" s="93"/>
-      <c r="U39" s="94"/>
-      <c r="V39" s="95"/>
-      <c r="W39" s="96"/>
-      <c r="X39" s="96"/>
-      <c r="Y39" s="96"/>
-      <c r="Z39" s="96"/>
-      <c r="AA39" s="96"/>
-      <c r="AB39" s="96"/>
-      <c r="AC39" s="96"/>
-      <c r="AD39" s="96"/>
-      <c r="AE39" s="96"/>
-      <c r="AF39" s="96"/>
-      <c r="AG39" s="105"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="61"/>
+      <c r="S39" s="82"/>
+      <c r="T39" s="83"/>
+      <c r="U39" s="84"/>
+      <c r="V39" s="85"/>
+      <c r="W39" s="86"/>
+      <c r="X39" s="86"/>
+      <c r="Y39" s="86"/>
+      <c r="Z39" s="86"/>
+      <c r="AA39" s="86"/>
+      <c r="AB39" s="86"/>
+      <c r="AC39" s="86"/>
+      <c r="AD39" s="86"/>
+      <c r="AE39" s="86"/>
+      <c r="AF39" s="86"/>
+      <c r="AG39" s="95"/>
     </row>
     <row r="40" spans="3:33">
-      <c r="C40" s="66"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="58"/>
-      <c r="K40" s="58"/>
-      <c r="L40" s="58"/>
-      <c r="M40" s="58"/>
-      <c r="N40" s="58"/>
-      <c r="O40" s="58"/>
-      <c r="P40" s="58"/>
-      <c r="Q40" s="70"/>
-      <c r="S40" s="92"/>
-      <c r="T40" s="93"/>
-      <c r="U40" s="94"/>
-      <c r="V40" s="95"/>
-      <c r="W40" s="96"/>
-      <c r="X40" s="96"/>
-      <c r="Y40" s="96"/>
-      <c r="Z40" s="96"/>
-      <c r="AA40" s="96"/>
-      <c r="AB40" s="96"/>
-      <c r="AC40" s="96"/>
-      <c r="AD40" s="96"/>
-      <c r="AE40" s="96"/>
-      <c r="AF40" s="96"/>
-      <c r="AG40" s="105"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="49"/>
+      <c r="P40" s="49"/>
+      <c r="Q40" s="61"/>
+      <c r="S40" s="82"/>
+      <c r="T40" s="83"/>
+      <c r="U40" s="84"/>
+      <c r="V40" s="85"/>
+      <c r="W40" s="86"/>
+      <c r="X40" s="86"/>
+      <c r="Y40" s="86"/>
+      <c r="Z40" s="86"/>
+      <c r="AA40" s="86"/>
+      <c r="AB40" s="86"/>
+      <c r="AC40" s="86"/>
+      <c r="AD40" s="86"/>
+      <c r="AE40" s="86"/>
+      <c r="AF40" s="86"/>
+      <c r="AG40" s="95"/>
     </row>
     <row r="41" spans="3:33">
-      <c r="C41" s="66"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="58"/>
-      <c r="L41" s="58"/>
-      <c r="M41" s="58"/>
-      <c r="N41" s="58"/>
-      <c r="O41" s="58"/>
-      <c r="P41" s="58"/>
-      <c r="Q41" s="70"/>
-      <c r="S41" s="92"/>
-      <c r="T41" s="93"/>
-      <c r="U41" s="94"/>
-      <c r="V41" s="95"/>
-      <c r="W41" s="96"/>
-      <c r="X41" s="96"/>
-      <c r="Y41" s="96"/>
-      <c r="Z41" s="96"/>
-      <c r="AA41" s="96"/>
-      <c r="AB41" s="96"/>
-      <c r="AC41" s="96"/>
-      <c r="AD41" s="96"/>
-      <c r="AE41" s="96"/>
-      <c r="AF41" s="96"/>
-      <c r="AG41" s="105"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="49"/>
+      <c r="O41" s="49"/>
+      <c r="P41" s="49"/>
+      <c r="Q41" s="61"/>
+      <c r="S41" s="82"/>
+      <c r="T41" s="83"/>
+      <c r="U41" s="84"/>
+      <c r="V41" s="85"/>
+      <c r="W41" s="86"/>
+      <c r="X41" s="86"/>
+      <c r="Y41" s="86"/>
+      <c r="Z41" s="86"/>
+      <c r="AA41" s="86"/>
+      <c r="AB41" s="86"/>
+      <c r="AC41" s="86"/>
+      <c r="AD41" s="86"/>
+      <c r="AE41" s="86"/>
+      <c r="AF41" s="86"/>
+      <c r="AG41" s="95"/>
     </row>
     <row r="42" spans="3:33">
-      <c r="C42" s="68"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="63"/>
-      <c r="H42" s="63"/>
-      <c r="I42" s="63"/>
-      <c r="J42" s="63"/>
-      <c r="K42" s="63"/>
-      <c r="L42" s="63"/>
-      <c r="M42" s="63"/>
-      <c r="N42" s="63"/>
-      <c r="O42" s="63"/>
-      <c r="P42" s="63"/>
-      <c r="Q42" s="75"/>
-      <c r="S42" s="97"/>
-      <c r="T42" s="98"/>
-      <c r="U42" s="99"/>
-      <c r="V42" s="100"/>
-      <c r="W42" s="101"/>
-      <c r="X42" s="101"/>
-      <c r="Y42" s="101"/>
-      <c r="Z42" s="101"/>
-      <c r="AA42" s="101"/>
-      <c r="AB42" s="101"/>
-      <c r="AC42" s="101"/>
-      <c r="AD42" s="101"/>
-      <c r="AE42" s="101"/>
-      <c r="AF42" s="101"/>
-      <c r="AG42" s="106"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="66"/>
+      <c r="S42" s="87"/>
+      <c r="T42" s="88"/>
+      <c r="U42" s="89"/>
+      <c r="V42" s="90"/>
+      <c r="W42" s="91"/>
+      <c r="X42" s="91"/>
+      <c r="Y42" s="91"/>
+      <c r="Z42" s="91"/>
+      <c r="AA42" s="91"/>
+      <c r="AB42" s="91"/>
+      <c r="AC42" s="91"/>
+      <c r="AD42" s="91"/>
+      <c r="AE42" s="91"/>
+      <c r="AF42" s="91"/>
+      <c r="AG42" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2317,713 +2291,713 @@
   <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="8.25" customHeight="1"/>
   <sheetData>
     <row r="13" customHeight="1" spans="3:30">
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="31">
+      <c r="I13" s="22">
         <v>9.17</v>
       </c>
-      <c r="P13" s="31">
+      <c r="P13" s="22">
         <v>9.24</v>
       </c>
-      <c r="W13" s="31">
+      <c r="W13" s="22">
         <v>10.1</v>
       </c>
-      <c r="AD13" s="31" t="s">
+      <c r="AD13" s="22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="3:30">
-      <c r="C14" s="22"/>
-      <c r="I14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="AD14" s="31"/>
+      <c r="C14" s="5"/>
+      <c r="I14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="AD14" s="22"/>
     </row>
     <row r="15" customHeight="1" spans="3:30">
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="49"/>
-      <c r="T15" s="49"/>
-      <c r="U15" s="49"/>
-      <c r="V15" s="49"/>
-      <c r="W15" s="50"/>
-      <c r="X15" s="51"/>
-      <c r="Y15" s="52"/>
-      <c r="Z15" s="52"/>
-      <c r="AA15" s="52"/>
-      <c r="AB15" s="52"/>
-      <c r="AC15" s="52"/>
-      <c r="AD15" s="53"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="43"/>
+      <c r="AA15" s="43"/>
+      <c r="AB15" s="43"/>
+      <c r="AC15" s="43"/>
+      <c r="AD15" s="44"/>
     </row>
     <row r="16" customHeight="1" spans="3:30">
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="32" t="s">
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="45"/>
-      <c r="X16" s="32" t="s">
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="33"/>
-      <c r="AB16" s="33"/>
-      <c r="AC16" s="33"/>
-      <c r="AD16" s="45"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="36"/>
     </row>
     <row r="17" customHeight="1" spans="3:30">
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="46"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="35"/>
-      <c r="AB17" s="35"/>
-      <c r="AC17" s="35"/>
-      <c r="AD17" s="46"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="37"/>
     </row>
     <row r="18" customHeight="1" spans="3:30">
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="36"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="37"/>
-      <c r="AA18" s="37"/>
-      <c r="AB18" s="37"/>
-      <c r="AC18" s="37"/>
-      <c r="AD18" s="47"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="28"/>
+      <c r="AD18" s="38"/>
     </row>
     <row r="19" customHeight="1" spans="10:30">
-      <c r="J19" s="32" t="s">
+      <c r="J19" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="32" t="s">
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="33"/>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="33"/>
-      <c r="AD19" s="45"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="24"/>
+      <c r="AA19" s="24"/>
+      <c r="AB19" s="24"/>
+      <c r="AC19" s="24"/>
+      <c r="AD19" s="36"/>
     </row>
     <row r="20" customHeight="1" spans="10:30">
-      <c r="J20" s="34"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="35"/>
-      <c r="Z20" s="35"/>
-      <c r="AA20" s="35"/>
-      <c r="AB20" s="35"/>
-      <c r="AC20" s="35"/>
-      <c r="AD20" s="46"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="26"/>
+      <c r="AC20" s="26"/>
+      <c r="AD20" s="37"/>
     </row>
     <row r="21" customHeight="1" spans="10:30">
-      <c r="J21" s="36"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="37"/>
-      <c r="AA21" s="37"/>
-      <c r="AB21" s="37"/>
-      <c r="AC21" s="37"/>
-      <c r="AD21" s="47"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="28"/>
+      <c r="AD21" s="38"/>
     </row>
     <row r="35" customHeight="1" spans="3:30">
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="I35" s="31" t="s">
+      <c r="I35" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="P35" s="31" t="s">
+      <c r="P35" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="W35" s="31" t="s">
+      <c r="W35" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="AD35" s="31" t="s">
+      <c r="AD35" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:30">
-      <c r="C36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="W36" s="31"/>
-      <c r="AD36" s="31"/>
+      <c r="C36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="W36" s="22"/>
+      <c r="AD36" s="22"/>
     </row>
     <row r="37" customHeight="1" spans="3:30">
-      <c r="C37" s="23"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="49"/>
-      <c r="S37" s="49"/>
-      <c r="T37" s="49"/>
-      <c r="U37" s="49"/>
-      <c r="V37" s="49"/>
-      <c r="W37" s="50"/>
-      <c r="X37" s="51"/>
-      <c r="Y37" s="52"/>
-      <c r="Z37" s="52"/>
-      <c r="AA37" s="52"/>
-      <c r="AB37" s="52"/>
-      <c r="AC37" s="52"/>
-      <c r="AD37" s="53"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="39"/>
+      <c r="R37" s="40"/>
+      <c r="S37" s="40"/>
+      <c r="T37" s="40"/>
+      <c r="U37" s="40"/>
+      <c r="V37" s="40"/>
+      <c r="W37" s="41"/>
+      <c r="X37" s="42"/>
+      <c r="Y37" s="43"/>
+      <c r="Z37" s="43"/>
+      <c r="AA37" s="43"/>
+      <c r="AB37" s="43"/>
+      <c r="AC37" s="43"/>
+      <c r="AD37" s="44"/>
     </row>
     <row r="38" customHeight="1" spans="3:30">
-      <c r="C38" s="32" t="s">
+      <c r="C38" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="45"/>
-      <c r="Q38" s="32" t="s">
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="R38" s="33"/>
-      <c r="S38" s="33"/>
-      <c r="T38" s="33"/>
-      <c r="U38" s="33"/>
-      <c r="V38" s="33"/>
-      <c r="W38" s="45"/>
-      <c r="X38" s="32" t="s">
+      <c r="R38" s="24"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="24"/>
+      <c r="U38" s="24"/>
+      <c r="V38" s="24"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="Y38" s="33"/>
-      <c r="Z38" s="33"/>
-      <c r="AA38" s="33"/>
-      <c r="AB38" s="33"/>
-      <c r="AC38" s="33"/>
-      <c r="AD38" s="45"/>
+      <c r="Y38" s="24"/>
+      <c r="Z38" s="24"/>
+      <c r="AA38" s="24"/>
+      <c r="AB38" s="24"/>
+      <c r="AC38" s="24"/>
+      <c r="AD38" s="36"/>
     </row>
     <row r="39" customHeight="1" spans="3:30">
-      <c r="C39" s="34"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="46"/>
-      <c r="Q39" s="34"/>
-      <c r="R39" s="35"/>
-      <c r="S39" s="35"/>
-      <c r="T39" s="35"/>
-      <c r="U39" s="35"/>
-      <c r="V39" s="35"/>
-      <c r="W39" s="46"/>
-      <c r="X39" s="34"/>
-      <c r="Y39" s="35"/>
-      <c r="Z39" s="35"/>
-      <c r="AA39" s="35"/>
-      <c r="AB39" s="35"/>
-      <c r="AC39" s="35"/>
-      <c r="AD39" s="46"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="26"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="26"/>
+      <c r="W39" s="37"/>
+      <c r="X39" s="25"/>
+      <c r="Y39" s="26"/>
+      <c r="Z39" s="26"/>
+      <c r="AA39" s="26"/>
+      <c r="AB39" s="26"/>
+      <c r="AC39" s="26"/>
+      <c r="AD39" s="37"/>
     </row>
     <row r="40" customHeight="1" spans="3:30">
-      <c r="C40" s="36"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="47"/>
-      <c r="Q40" s="36"/>
-      <c r="R40" s="37"/>
-      <c r="S40" s="37"/>
-      <c r="T40" s="37"/>
-      <c r="U40" s="37"/>
-      <c r="V40" s="37"/>
-      <c r="W40" s="47"/>
-      <c r="X40" s="36"/>
-      <c r="Y40" s="37"/>
-      <c r="Z40" s="37"/>
-      <c r="AA40" s="37"/>
-      <c r="AB40" s="37"/>
-      <c r="AC40" s="37"/>
-      <c r="AD40" s="47"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="38"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="38"/>
+      <c r="X40" s="27"/>
+      <c r="Y40" s="28"/>
+      <c r="Z40" s="28"/>
+      <c r="AA40" s="28"/>
+      <c r="AB40" s="28"/>
+      <c r="AC40" s="28"/>
+      <c r="AD40" s="38"/>
     </row>
     <row r="41" customHeight="1" spans="3:30">
-      <c r="C41" s="32" t="s">
+      <c r="C41" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="33"/>
-      <c r="O41" s="33"/>
-      <c r="P41" s="45"/>
-      <c r="Q41" s="32" t="s">
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="R41" s="33"/>
-      <c r="S41" s="33"/>
-      <c r="T41" s="33"/>
-      <c r="U41" s="33"/>
-      <c r="V41" s="33"/>
-      <c r="W41" s="33"/>
-      <c r="X41" s="33"/>
-      <c r="Y41" s="33"/>
-      <c r="Z41" s="33"/>
-      <c r="AA41" s="33"/>
-      <c r="AB41" s="33"/>
-      <c r="AC41" s="33"/>
-      <c r="AD41" s="45"/>
+      <c r="R41" s="24"/>
+      <c r="S41" s="24"/>
+      <c r="T41" s="24"/>
+      <c r="U41" s="24"/>
+      <c r="V41" s="24"/>
+      <c r="W41" s="24"/>
+      <c r="X41" s="24"/>
+      <c r="Y41" s="24"/>
+      <c r="Z41" s="24"/>
+      <c r="AA41" s="24"/>
+      <c r="AB41" s="24"/>
+      <c r="AC41" s="24"/>
+      <c r="AD41" s="36"/>
     </row>
     <row r="42" customHeight="1" spans="3:30">
-      <c r="C42" s="34"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="35"/>
-      <c r="P42" s="46"/>
-      <c r="Q42" s="34"/>
-      <c r="R42" s="35"/>
-      <c r="S42" s="35"/>
-      <c r="T42" s="35"/>
-      <c r="U42" s="35"/>
-      <c r="V42" s="35"/>
-      <c r="W42" s="35"/>
-      <c r="X42" s="35"/>
-      <c r="Y42" s="35"/>
-      <c r="Z42" s="35"/>
-      <c r="AA42" s="35"/>
-      <c r="AB42" s="35"/>
-      <c r="AC42" s="35"/>
-      <c r="AD42" s="46"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="26"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="26"/>
+      <c r="U42" s="26"/>
+      <c r="V42" s="26"/>
+      <c r="W42" s="26"/>
+      <c r="X42" s="26"/>
+      <c r="Y42" s="26"/>
+      <c r="Z42" s="26"/>
+      <c r="AA42" s="26"/>
+      <c r="AB42" s="26"/>
+      <c r="AC42" s="26"/>
+      <c r="AD42" s="37"/>
     </row>
     <row r="43" customHeight="1" spans="3:30">
-      <c r="C43" s="36"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="37"/>
-      <c r="N43" s="37"/>
-      <c r="O43" s="37"/>
-      <c r="P43" s="47"/>
-      <c r="Q43" s="36"/>
-      <c r="R43" s="37"/>
-      <c r="S43" s="37"/>
-      <c r="T43" s="37"/>
-      <c r="U43" s="37"/>
-      <c r="V43" s="37"/>
-      <c r="W43" s="37"/>
-      <c r="X43" s="37"/>
-      <c r="Y43" s="37"/>
-      <c r="Z43" s="37"/>
-      <c r="AA43" s="37"/>
-      <c r="AB43" s="37"/>
-      <c r="AC43" s="37"/>
-      <c r="AD43" s="47"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="38"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="28"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="28"/>
+      <c r="W43" s="28"/>
+      <c r="X43" s="28"/>
+      <c r="Y43" s="28"/>
+      <c r="Z43" s="28"/>
+      <c r="AA43" s="28"/>
+      <c r="AB43" s="28"/>
+      <c r="AC43" s="28"/>
+      <c r="AD43" s="38"/>
     </row>
     <row r="57" customHeight="1" spans="3:30">
-      <c r="C57" s="31" t="s">
+      <c r="C57" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I57" s="31" t="s">
+      <c r="I57" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="P57" s="31" t="s">
+      <c r="P57" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="W57" s="31" t="s">
+      <c r="W57" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AD57" s="31" t="s">
+      <c r="AD57" s="22" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="3:30">
-      <c r="C58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="P58" s="31"/>
-      <c r="W58" s="31"/>
-      <c r="AD58" s="31"/>
+      <c r="C58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="P58" s="22"/>
+      <c r="W58" s="22"/>
+      <c r="AD58" s="22"/>
     </row>
     <row r="59" customHeight="1" spans="3:30">
-      <c r="C59" s="23"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="38"/>
-      <c r="J59" s="39"/>
-      <c r="K59" s="40"/>
-      <c r="L59" s="40"/>
-      <c r="M59" s="40"/>
-      <c r="N59" s="40"/>
-      <c r="O59" s="40"/>
-      <c r="P59" s="41"/>
-      <c r="Q59" s="48"/>
-      <c r="R59" s="49"/>
-      <c r="S59" s="49"/>
-      <c r="T59" s="49"/>
-      <c r="U59" s="49"/>
-      <c r="V59" s="49"/>
-      <c r="W59" s="50"/>
-      <c r="X59" s="51"/>
-      <c r="Y59" s="52"/>
-      <c r="Z59" s="52"/>
-      <c r="AA59" s="52"/>
-      <c r="AB59" s="52"/>
-      <c r="AC59" s="52"/>
-      <c r="AD59" s="53"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="31"/>
+      <c r="P59" s="32"/>
+      <c r="Q59" s="39"/>
+      <c r="R59" s="40"/>
+      <c r="S59" s="40"/>
+      <c r="T59" s="40"/>
+      <c r="U59" s="40"/>
+      <c r="V59" s="40"/>
+      <c r="W59" s="41"/>
+      <c r="X59" s="42"/>
+      <c r="Y59" s="43"/>
+      <c r="Z59" s="43"/>
+      <c r="AA59" s="43"/>
+      <c r="AB59" s="43"/>
+      <c r="AC59" s="43"/>
+      <c r="AD59" s="44"/>
     </row>
     <row r="60" customHeight="1" spans="3:30">
-      <c r="C60" s="32" t="s">
+      <c r="C60" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="33"/>
-      <c r="J60" s="33"/>
-      <c r="K60" s="33"/>
-      <c r="L60" s="33"/>
-      <c r="M60" s="33"/>
-      <c r="N60" s="33"/>
-      <c r="O60" s="33"/>
-      <c r="P60" s="45"/>
-      <c r="Q60" s="32" t="s">
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="24"/>
+      <c r="O60" s="24"/>
+      <c r="P60" s="36"/>
+      <c r="Q60" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="R60" s="33"/>
-      <c r="S60" s="33"/>
-      <c r="T60" s="33"/>
-      <c r="U60" s="33"/>
-      <c r="V60" s="33"/>
-      <c r="W60" s="33"/>
-      <c r="X60" s="33"/>
-      <c r="Y60" s="33"/>
-      <c r="Z60" s="33"/>
-      <c r="AA60" s="33"/>
-      <c r="AB60" s="33"/>
-      <c r="AC60" s="33"/>
-      <c r="AD60" s="45"/>
+      <c r="R60" s="24"/>
+      <c r="S60" s="24"/>
+      <c r="T60" s="24"/>
+      <c r="U60" s="24"/>
+      <c r="V60" s="24"/>
+      <c r="W60" s="24"/>
+      <c r="X60" s="24"/>
+      <c r="Y60" s="24"/>
+      <c r="Z60" s="24"/>
+      <c r="AA60" s="24"/>
+      <c r="AB60" s="24"/>
+      <c r="AC60" s="24"/>
+      <c r="AD60" s="36"/>
     </row>
     <row r="61" customHeight="1" spans="3:30">
-      <c r="C61" s="34"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="35"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="35"/>
-      <c r="N61" s="35"/>
-      <c r="O61" s="35"/>
-      <c r="P61" s="46"/>
-      <c r="Q61" s="34"/>
-      <c r="R61" s="35"/>
-      <c r="S61" s="35"/>
-      <c r="T61" s="35"/>
-      <c r="U61" s="35"/>
-      <c r="V61" s="35"/>
-      <c r="W61" s="35"/>
-      <c r="X61" s="35"/>
-      <c r="Y61" s="35"/>
-      <c r="Z61" s="35"/>
-      <c r="AA61" s="35"/>
-      <c r="AB61" s="35"/>
-      <c r="AC61" s="35"/>
-      <c r="AD61" s="46"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="26"/>
+      <c r="M61" s="26"/>
+      <c r="N61" s="26"/>
+      <c r="O61" s="26"/>
+      <c r="P61" s="37"/>
+      <c r="Q61" s="25"/>
+      <c r="R61" s="26"/>
+      <c r="S61" s="26"/>
+      <c r="T61" s="26"/>
+      <c r="U61" s="26"/>
+      <c r="V61" s="26"/>
+      <c r="W61" s="26"/>
+      <c r="X61" s="26"/>
+      <c r="Y61" s="26"/>
+      <c r="Z61" s="26"/>
+      <c r="AA61" s="26"/>
+      <c r="AB61" s="26"/>
+      <c r="AC61" s="26"/>
+      <c r="AD61" s="37"/>
     </row>
     <row r="62" customHeight="1" spans="3:30">
-      <c r="C62" s="36"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="37"/>
-      <c r="K62" s="37"/>
-      <c r="L62" s="37"/>
-      <c r="M62" s="37"/>
-      <c r="N62" s="37"/>
-      <c r="O62" s="37"/>
-      <c r="P62" s="47"/>
-      <c r="Q62" s="36"/>
-      <c r="R62" s="37"/>
-      <c r="S62" s="37"/>
-      <c r="T62" s="37"/>
-      <c r="U62" s="37"/>
-      <c r="V62" s="37"/>
-      <c r="W62" s="37"/>
-      <c r="X62" s="37"/>
-      <c r="Y62" s="37"/>
-      <c r="Z62" s="37"/>
-      <c r="AA62" s="37"/>
-      <c r="AB62" s="37"/>
-      <c r="AC62" s="37"/>
-      <c r="AD62" s="47"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="28"/>
+      <c r="O62" s="28"/>
+      <c r="P62" s="38"/>
+      <c r="Q62" s="27"/>
+      <c r="R62" s="28"/>
+      <c r="S62" s="28"/>
+      <c r="T62" s="28"/>
+      <c r="U62" s="28"/>
+      <c r="V62" s="28"/>
+      <c r="W62" s="28"/>
+      <c r="X62" s="28"/>
+      <c r="Y62" s="28"/>
+      <c r="Z62" s="28"/>
+      <c r="AA62" s="28"/>
+      <c r="AB62" s="28"/>
+      <c r="AC62" s="28"/>
+      <c r="AD62" s="38"/>
     </row>
     <row r="63" customHeight="1" spans="3:30">
-      <c r="C63" s="32" t="s">
+      <c r="C63" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="33"/>
-      <c r="K63" s="33"/>
-      <c r="L63" s="33"/>
-      <c r="M63" s="33"/>
-      <c r="N63" s="33"/>
-      <c r="O63" s="33"/>
-      <c r="P63" s="45"/>
-      <c r="Q63" s="32" t="s">
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="24"/>
+      <c r="O63" s="24"/>
+      <c r="P63" s="36"/>
+      <c r="Q63" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="R63" s="33"/>
-      <c r="S63" s="33"/>
-      <c r="T63" s="33"/>
-      <c r="U63" s="33"/>
-      <c r="V63" s="33"/>
-      <c r="W63" s="33"/>
-      <c r="X63" s="33"/>
-      <c r="Y63" s="33"/>
-      <c r="Z63" s="33"/>
-      <c r="AA63" s="33"/>
-      <c r="AB63" s="33"/>
-      <c r="AC63" s="33"/>
-      <c r="AD63" s="45"/>
+      <c r="R63" s="24"/>
+      <c r="S63" s="24"/>
+      <c r="T63" s="24"/>
+      <c r="U63" s="24"/>
+      <c r="V63" s="24"/>
+      <c r="W63" s="24"/>
+      <c r="X63" s="24"/>
+      <c r="Y63" s="24"/>
+      <c r="Z63" s="24"/>
+      <c r="AA63" s="24"/>
+      <c r="AB63" s="24"/>
+      <c r="AC63" s="24"/>
+      <c r="AD63" s="36"/>
     </row>
     <row r="64" customHeight="1" spans="3:30">
-      <c r="C64" s="34"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="35"/>
-      <c r="N64" s="35"/>
-      <c r="O64" s="35"/>
-      <c r="P64" s="46"/>
-      <c r="Q64" s="34"/>
-      <c r="R64" s="35"/>
-      <c r="S64" s="35"/>
-      <c r="T64" s="35"/>
-      <c r="U64" s="35"/>
-      <c r="V64" s="35"/>
-      <c r="W64" s="35"/>
-      <c r="X64" s="35"/>
-      <c r="Y64" s="35"/>
-      <c r="Z64" s="35"/>
-      <c r="AA64" s="35"/>
-      <c r="AB64" s="35"/>
-      <c r="AC64" s="35"/>
-      <c r="AD64" s="46"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="26"/>
+      <c r="N64" s="26"/>
+      <c r="O64" s="26"/>
+      <c r="P64" s="37"/>
+      <c r="Q64" s="25"/>
+      <c r="R64" s="26"/>
+      <c r="S64" s="26"/>
+      <c r="T64" s="26"/>
+      <c r="U64" s="26"/>
+      <c r="V64" s="26"/>
+      <c r="W64" s="26"/>
+      <c r="X64" s="26"/>
+      <c r="Y64" s="26"/>
+      <c r="Z64" s="26"/>
+      <c r="AA64" s="26"/>
+      <c r="AB64" s="26"/>
+      <c r="AC64" s="26"/>
+      <c r="AD64" s="37"/>
     </row>
     <row r="65" customHeight="1" spans="3:30">
-      <c r="C65" s="36"/>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="37"/>
-      <c r="K65" s="37"/>
-      <c r="L65" s="37"/>
-      <c r="M65" s="37"/>
-      <c r="N65" s="37"/>
-      <c r="O65" s="37"/>
-      <c r="P65" s="47"/>
-      <c r="Q65" s="36"/>
-      <c r="R65" s="37"/>
-      <c r="S65" s="37"/>
-      <c r="T65" s="37"/>
-      <c r="U65" s="37"/>
-      <c r="V65" s="37"/>
-      <c r="W65" s="37"/>
-      <c r="X65" s="37"/>
-      <c r="Y65" s="37"/>
-      <c r="Z65" s="37"/>
-      <c r="AA65" s="37"/>
-      <c r="AB65" s="37"/>
-      <c r="AC65" s="37"/>
-      <c r="AD65" s="47"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="28"/>
+      <c r="M65" s="28"/>
+      <c r="N65" s="28"/>
+      <c r="O65" s="28"/>
+      <c r="P65" s="38"/>
+      <c r="Q65" s="27"/>
+      <c r="R65" s="28"/>
+      <c r="S65" s="28"/>
+      <c r="T65" s="28"/>
+      <c r="U65" s="28"/>
+      <c r="V65" s="28"/>
+      <c r="W65" s="28"/>
+      <c r="X65" s="28"/>
+      <c r="Y65" s="28"/>
+      <c r="Z65" s="28"/>
+      <c r="AA65" s="28"/>
+      <c r="AB65" s="28"/>
+      <c r="AC65" s="28"/>
+      <c r="AD65" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -3078,10 +3052,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="F3:AW20"/>
+  <dimension ref="F3:AW27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AC14" sqref="AC14"/>
+      <selection activeCell="AB27" sqref="AB27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3329,6 +3303,11 @@
       <c r="AV20" s="2"/>
       <c r="AW20" s="9"/>
     </row>
+    <row r="27" spans="6:6">
+      <c r="F27" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="F16:M20"/>
@@ -3348,10 +3327,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="M6:AQ38"/>
+  <dimension ref="M6:AS38"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AA58" sqref="AA58"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="AW24" sqref="AW24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3361,12 +3340,12 @@
   <sheetData>
     <row r="6" spans="23:23">
       <c r="W6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="33:43">
       <c r="AG9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AH9" s="3"/>
       <c r="AI9" s="3"/>
@@ -3377,7 +3356,7 @@
       <c r="AN9" s="3"/>
       <c r="AO9" s="3"/>
       <c r="AP9" s="3"/>
-      <c r="AQ9" s="16"/>
+      <c r="AQ9" s="11"/>
     </row>
     <row r="10" spans="33:43">
       <c r="AG10" s="4"/>
@@ -3390,7 +3369,7 @@
       <c r="AN10" s="5"/>
       <c r="AO10" s="5"/>
       <c r="AP10" s="5"/>
-      <c r="AQ10" s="17"/>
+      <c r="AQ10" s="12"/>
     </row>
     <row r="11" spans="33:43">
       <c r="AG11" s="6"/>
@@ -3403,11 +3382,11 @@
       <c r="AN11" s="7"/>
       <c r="AO11" s="7"/>
       <c r="AP11" s="7"/>
-      <c r="AQ11" s="18"/>
+      <c r="AQ11" s="13"/>
     </row>
     <row r="12" spans="13:27">
       <c r="M12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -3441,16 +3420,16 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="8"/>
       <c r="AG13" s="10"/>
-      <c r="AH13" s="11"/>
-      <c r="AI13" s="11"/>
-      <c r="AJ13" s="11"/>
-      <c r="AK13" s="11"/>
-      <c r="AL13" s="11"/>
-      <c r="AM13" s="11"/>
-      <c r="AN13" s="11"/>
-      <c r="AO13" s="11"/>
-      <c r="AP13" s="11"/>
-      <c r="AQ13" s="19"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="10"/>
+      <c r="AO13" s="10"/>
+      <c r="AP13" s="10"/>
+      <c r="AQ13" s="10"/>
     </row>
     <row r="14" spans="13:43">
       <c r="M14" s="1"/>
@@ -3468,17 +3447,17 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="8"/>
-      <c r="AG14" s="12"/>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="13"/>
-      <c r="AJ14" s="13"/>
-      <c r="AK14" s="13"/>
-      <c r="AL14" s="13"/>
-      <c r="AM14" s="13"/>
-      <c r="AN14" s="13"/>
-      <c r="AO14" s="13"/>
-      <c r="AP14" s="13"/>
-      <c r="AQ14" s="20"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="10"/>
+      <c r="AO14" s="10"/>
+      <c r="AP14" s="10"/>
+      <c r="AQ14" s="10"/>
     </row>
     <row r="15" spans="13:43">
       <c r="M15" s="1"/>
@@ -3496,17 +3475,17 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="8"/>
-      <c r="AG15" s="14"/>
-      <c r="AH15" s="15"/>
-      <c r="AI15" s="15"/>
-      <c r="AJ15" s="15"/>
-      <c r="AK15" s="15"/>
-      <c r="AL15" s="15"/>
-      <c r="AM15" s="15"/>
-      <c r="AN15" s="15"/>
-      <c r="AO15" s="15"/>
-      <c r="AP15" s="15"/>
-      <c r="AQ15" s="21"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="10"/>
+      <c r="AO15" s="10"/>
+      <c r="AP15" s="10"/>
+      <c r="AQ15" s="10"/>
     </row>
     <row r="16" spans="13:27">
       <c r="M16" s="1"/>
@@ -3542,7 +3521,7 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="8"/>
       <c r="AG17" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AH17" s="3"/>
       <c r="AI17" s="3"/>
@@ -3553,9 +3532,9 @@
       <c r="AN17" s="3"/>
       <c r="AO17" s="3"/>
       <c r="AP17" s="3"/>
-      <c r="AQ17" s="16"/>
-    </row>
-    <row r="18" spans="13:43">
+      <c r="AQ17" s="11"/>
+    </row>
+    <row r="18" spans="13:45">
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -3581,7 +3560,10 @@
       <c r="AN18" s="5"/>
       <c r="AO18" s="5"/>
       <c r="AP18" s="5"/>
-      <c r="AQ18" s="17"/>
+      <c r="AQ18" s="12"/>
+      <c r="AS18" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="19" spans="13:43">
       <c r="M19" s="1"/>
@@ -3609,7 +3591,7 @@
       <c r="AN19" s="7"/>
       <c r="AO19" s="7"/>
       <c r="AP19" s="7"/>
-      <c r="AQ19" s="18"/>
+      <c r="AQ19" s="13"/>
     </row>
     <row r="20" spans="13:27">
       <c r="M20" s="1"/>
@@ -3645,16 +3627,16 @@
       <c r="Z21" s="1"/>
       <c r="AA21" s="8"/>
       <c r="AG21" s="10"/>
-      <c r="AH21" s="11"/>
-      <c r="AI21" s="11"/>
-      <c r="AJ21" s="11"/>
-      <c r="AK21" s="11"/>
-      <c r="AL21" s="11"/>
-      <c r="AM21" s="11"/>
-      <c r="AN21" s="11"/>
-      <c r="AO21" s="11"/>
-      <c r="AP21" s="11"/>
-      <c r="AQ21" s="19"/>
+      <c r="AH21" s="10"/>
+      <c r="AI21" s="10"/>
+      <c r="AJ21" s="10"/>
+      <c r="AK21" s="10"/>
+      <c r="AL21" s="10"/>
+      <c r="AM21" s="10"/>
+      <c r="AN21" s="10"/>
+      <c r="AO21" s="10"/>
+      <c r="AP21" s="10"/>
+      <c r="AQ21" s="10"/>
     </row>
     <row r="22" spans="13:43">
       <c r="M22" s="1"/>
@@ -3672,17 +3654,17 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="8"/>
-      <c r="AG22" s="12"/>
-      <c r="AH22" s="13"/>
-      <c r="AI22" s="13"/>
-      <c r="AJ22" s="13"/>
-      <c r="AK22" s="13"/>
-      <c r="AL22" s="13"/>
-      <c r="AM22" s="13"/>
-      <c r="AN22" s="13"/>
-      <c r="AO22" s="13"/>
-      <c r="AP22" s="13"/>
-      <c r="AQ22" s="20"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10"/>
+      <c r="AM22" s="10"/>
+      <c r="AN22" s="10"/>
+      <c r="AO22" s="10"/>
+      <c r="AP22" s="10"/>
+      <c r="AQ22" s="10"/>
     </row>
     <row r="23" spans="13:43">
       <c r="M23" s="1"/>
@@ -3700,17 +3682,17 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="8"/>
-      <c r="AG23" s="14"/>
-      <c r="AH23" s="15"/>
-      <c r="AI23" s="15"/>
-      <c r="AJ23" s="15"/>
-      <c r="AK23" s="15"/>
-      <c r="AL23" s="15"/>
-      <c r="AM23" s="15"/>
-      <c r="AN23" s="15"/>
-      <c r="AO23" s="15"/>
-      <c r="AP23" s="15"/>
-      <c r="AQ23" s="21"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="10"/>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="10"/>
+      <c r="AM23" s="10"/>
+      <c r="AN23" s="10"/>
+      <c r="AO23" s="10"/>
+      <c r="AP23" s="10"/>
+      <c r="AQ23" s="10"/>
     </row>
     <row r="24" spans="13:27">
       <c r="M24" s="1"/>
@@ -3746,7 +3728,7 @@
       <c r="Z25" s="2"/>
       <c r="AA25" s="9"/>
       <c r="AG25" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
@@ -3759,7 +3741,7 @@
       <c r="AP25" s="1"/>
       <c r="AQ25" s="8"/>
     </row>
-    <row r="26" spans="33:43">
+    <row r="26" spans="33:45">
       <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
@@ -3771,6 +3753,9 @@
       <c r="AO26" s="1"/>
       <c r="AP26" s="1"/>
       <c r="AQ26" s="8"/>
+      <c r="AS26" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="27" spans="33:43">
       <c r="AG27" s="2"/>
@@ -3787,7 +3772,7 @@
     </row>
     <row r="35" spans="13:43">
       <c r="M35" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
@@ -3818,7 +3803,7 @@
       <c r="AN35" s="3"/>
       <c r="AO35" s="3"/>
       <c r="AP35" s="3"/>
-      <c r="AQ35" s="16"/>
+      <c r="AQ35" s="11"/>
     </row>
     <row r="36" spans="13:43">
       <c r="M36" s="4"/>
@@ -3851,7 +3836,7 @@
       <c r="AN36" s="5"/>
       <c r="AO36" s="5"/>
       <c r="AP36" s="5"/>
-      <c r="AQ36" s="17"/>
+      <c r="AQ36" s="12"/>
     </row>
     <row r="37" spans="13:43">
       <c r="M37" s="4"/>
@@ -3884,7 +3869,7 @@
       <c r="AN37" s="5"/>
       <c r="AO37" s="5"/>
       <c r="AP37" s="5"/>
-      <c r="AQ37" s="17"/>
+      <c r="AQ37" s="12"/>
     </row>
     <row r="38" spans="13:43">
       <c r="M38" s="6"/>
@@ -3917,7 +3902,7 @@
       <c r="AN38" s="7"/>
       <c r="AO38" s="7"/>
       <c r="AP38" s="7"/>
-      <c r="AQ38" s="18"/>
+      <c r="AQ38" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18135" windowHeight="11505" activeTab="3"/>
+    <workbookView windowWidth="18135" windowHeight="11505" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息" sheetId="1" r:id="rId1"/>
     <sheet name="任务安排" sheetId="2" r:id="rId2"/>
     <sheet name="进程架构" sheetId="3" r:id="rId3"/>
     <sheet name="Worker" sheetId="4" r:id="rId4"/>
+    <sheet name="Epoll模型" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst/>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>核心模块</t>
   </si>
@@ -175,14 +176,20 @@
   <si>
     <t>FastCGI</t>
   </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -741,6 +748,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
@@ -3329,7 +3340,7 @@
   <sheetPr/>
   <dimension ref="M6:AS38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="AW24" sqref="AW24"/>
     </sheetView>
   </sheetViews>
@@ -3918,4 +3929,47 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="P5:Z31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="Y30" sqref="Y30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="2.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="26:26">
+      <c r="Z5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="18:18">
+      <c r="R11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="26:26">
+      <c r="Z25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="16:16">
+      <c r="P31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>